--- a/ModeloTransporte.xlsx
+++ b/ModeloTransporte.xlsx
@@ -8,13 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l_alo\Downloads\ModeloTransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99F419E2-FD9F-4C99-B9A3-42D67E8EC209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DAB01B-EA28-499B-8714-1E454C16584B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{05D0FC68-4338-487E-8882-C1544631E011}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Hoja1!$G$21:$I$22</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Hoja1!$G$23:$I$23</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Hoja1!$J$21:$J$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Hoja1!$J$21:$J$22</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Hoja1!$N$17</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Hoja1!$G$25:$I$25</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Hoja1!$L$21:$L$22</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Hoja1!$L$21:$L$22</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,9 +71,130 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eduardo González Bernal</author>
+  </authors>
+  <commentList>
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{CCAB9436-BE73-4238-BD1A-A2D5F080D60A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Capacidad</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+o cantidad de producción</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{4197F514-81AB-47DE-AEDD-CBB5C4F9E1A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cantidad</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+que requieren los clientes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+  <si>
+    <t>Demanda</t>
+  </si>
+  <si>
+    <t>Almacén</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Oferta</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
+  </si>
+  <si>
+    <t>SIGNO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>FUNCIÓN OBJETIVO</t>
+  </si>
+  <si>
+    <t>Total de Producción (O)</t>
+  </si>
+  <si>
+    <t>Total de Demanda (D)</t>
+  </si>
+  <si>
+    <t>Total Costo Mín (Z) =</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-[$$-80A]* #,##0_-;\-[$$-80A]* #,##0_-;_-[$$-80A]* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,16 +202,94 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -60,18 +297,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDA0000"/>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -81,6 +382,400 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>441370</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Grupo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48EAF5A-35D2-4AC4-97A4-82AE179A3B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8899570" cy="1523999"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="8823370" cy="1523999"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectángulo 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346DDC7B-1C9A-433C-B2DF-CFD0DDD640E2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="2516317" cy="1508440"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="427E49"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D5725A-464D-4E5A-A05D-3C5C515069EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2516318" y="0"/>
+            <a:ext cx="6307052" cy="1508440"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-ES" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="CuadroTexto 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0EE1AB-A58F-4598-9F9D-853E771E60F7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2600324" y="0"/>
+            <a:ext cx="6129463" cy="1523999"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-ES" sz="4800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
+                <a:latin typeface="Soberana Sans" panose="02000000000000000000" pitchFamily="50" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Modelo de Transporte</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12" descr="Investigación de operaciones: MODELO DE TRANSPORTE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A04D9D8-831C-4A47-A027-85DA0D87C579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4572000"/>
+          <a:ext cx="3048000" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13" descr="Transporte y Asignacion - Investigación de Operaciones 4IN4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BFF493-E6FC-4B71-B7FB-80298E884393}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="1714501"/>
+          <a:ext cx="3048000" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14" descr="Transporte terrestre, marítimo, aéreo e intermodal de mercancías">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D1D140-2669-425A-AEBB-4129FB571524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="514350" y="57150"/>
+          <a:ext cx="1362075" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,13 +1074,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E34AF27-CFAF-4009-9ACC-034E91B8CFC6}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E34AF27-CFAF-4009-9ACC-034E91B8CFC6}">
+  <dimension ref="F11:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2">
+        <f>SUM(J13:J14)</f>
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="13" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="13">
+        <v>3</v>
+      </c>
+      <c r="H13" s="13">
+        <v>4</v>
+      </c>
+      <c r="I13" s="13">
+        <v>6</v>
+      </c>
+      <c r="J13" s="12">
+        <v>160000</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="2">
+        <f>SUM(G15:I15)</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="14" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="13">
+        <v>5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>3</v>
+      </c>
+      <c r="I14" s="13">
+        <v>5</v>
+      </c>
+      <c r="J14" s="12">
+        <v>120000</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="14">
+        <f>N12-N13</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="15" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>80000</v>
+      </c>
+      <c r="H15" s="12">
+        <v>70000</v>
+      </c>
+      <c r="I15" s="12">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="16" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="L17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="15">
+        <f>SUMPRODUCT(G13:I14,G21:I22)</f>
+        <v>940000</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="6">
+        <v>80000</v>
+      </c>
+      <c r="H21" s="6">
+        <v>40000</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <f>SUM(G21:I21)</f>
+        <v>120000</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="12">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I22" s="6">
+        <v>90000</v>
+      </c>
+      <c r="J22" s="5">
+        <f>SUM(G22:I22)</f>
+        <v>120000</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="12">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" ref="G23:J23" si="0">SUM(G21:G22)</f>
+        <v>80000</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>80000</v>
+      </c>
+      <c r="H25" s="12">
+        <v>70000</v>
+      </c>
+      <c r="I25" s="12">
+        <v>90000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L14:M14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ModeloTransporte.xlsx
+++ b/ModeloTransporte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l_alo\Downloads\ModeloTransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DAB01B-EA28-499B-8714-1E454C16584B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9EA19-76FC-4F60-9D59-4378F486D180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{05D0FC68-4338-487E-8882-C1544631E011}"/>
   </bookViews>
@@ -77,6 +77,34 @@
     <author>Eduardo González Bernal</author>
   </authors>
   <commentList>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{FB8F7AA9-FD3E-4167-8FD3-7E5A4D33ECA3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Destino</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{119BB2A7-E3A3-469D-813D-F4994D618EA9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fuente</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J12" authorId="0" shapeId="0" xr:uid="{CCAB9436-BE73-4238-BD1A-A2D5F080D60A}">
       <text>
         <r>
@@ -130,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Demanda</t>
   </si>
@@ -153,9 +181,6 @@
     <t>C3</t>
   </si>
   <si>
-    <t>Diferencia</t>
-  </si>
-  <si>
     <t>SIGNO</t>
   </si>
   <si>
@@ -165,18 +190,9 @@
     <t>&lt;=</t>
   </si>
   <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
     <t>FUNCIÓN OBJETIVO</t>
   </si>
   <si>
-    <t>Total de Producción (O)</t>
-  </si>
-  <si>
-    <t>Total de Demanda (D)</t>
-  </si>
-  <si>
     <t>Total Costo Mín (Z) =</t>
   </si>
   <si>
@@ -184,6 +200,24 @@
   </si>
   <si>
     <t>A2</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Diferencia (O-D) =</t>
+  </si>
+  <si>
+    <t>Total de Producción (O) =</t>
+  </si>
+  <si>
+    <t>Total de Demanda (D) =</t>
+  </si>
+  <si>
+    <t>VARIABLES DE DECISIÓN</t>
+  </si>
+  <si>
+    <t>RESTRICCIONES</t>
   </si>
 </sst>
 </file>
@@ -191,8 +225,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-[$$-80A]* #,##0_-;\-[$$-80A]* #,##0_-;_-[$$-80A]* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0_-;\-[$$-80A]* #,##0_-;_-[$$-80A]* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -272,12 +306,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -288,8 +316,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -321,45 +355,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,10 +522,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>441370</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>828674</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -413,9 +541,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8899570" cy="1523999"/>
+          <a:ext cx="10810874" cy="1524000"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="8823370" cy="1523999"/>
+          <a:chExt cx="8823370" cy="1524000"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -543,7 +671,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2600324" y="0"/>
-            <a:ext cx="6129463" cy="1523999"/>
+            <a:ext cx="6129463" cy="1524000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -592,13 +720,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -629,7 +757,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="4572000"/>
+          <a:off x="0" y="4762500"/>
           <a:ext cx="3048000" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -712,16 +840,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -751,7 +879,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="514350" y="57150"/>
+          <a:off x="800100" y="19050"/>
           <a:ext cx="1362075" cy="1362075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -771,11 +899,65 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA4754A-7663-41E5-B843-28A80F5A4948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3609975" y="4181475"/>
+          <a:ext cx="114300" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1075,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E34AF27-CFAF-4009-9ACC-034E91B8CFC6}">
-  <dimension ref="F11:N25"/>
+  <dimension ref="D11:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,248 +1270,271 @@
   </cols>
   <sheetData>
     <row r="11" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="3"/>
+      <c r="L12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="19"/>
       <c r="N12" s="2">
         <f>SUM(J13:J14)</f>
         <v>280000</v>
       </c>
     </row>
     <row r="13" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9">
         <v>3</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="9">
         <v>4</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="9">
         <v>6</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="8">
         <v>160000</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="3"/>
+      <c r="L13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="19"/>
       <c r="N13" s="2">
         <f>SUM(G15:I15)</f>
         <v>240000</v>
       </c>
     </row>
     <row r="14" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="9">
         <v>5</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="9">
         <v>3</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="9">
         <v>5</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="8">
         <v>120000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="14">
+      <c r="L14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="10">
         <f>N12-N13</f>
         <v>40000</v>
       </c>
     </row>
     <row r="15" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="8">
         <v>80000</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="8">
         <v>70000</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="8">
         <v>90000</v>
       </c>
     </row>
     <row r="16" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
+      <c r="L16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="L17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="15">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="L17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="13">
         <f>SUMPRODUCT(G13:I14,G21:I22)</f>
         <v>940000</v>
       </c>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G19" s="4" t="s">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="F18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F20" s="7" t="s">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="9" t="s">
+      <c r="J20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="K20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="6">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="F21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="9">
         <v>80000</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="9">
         <v>40000</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="9">
         <v>0</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="3">
         <f>SUM(G21:I21)</f>
         <v>120000</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="12">
+      <c r="K21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="8">
         <v>160000</v>
       </c>
     </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="6">
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="F22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="9">
         <v>30000</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="9">
         <v>90000</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="3">
         <f>SUM(G22:I22)</f>
         <v>120000</v>
       </c>
-      <c r="K22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="12">
+      <c r="K22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="8">
         <v>120000</v>
       </c>
     </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" ref="G23:J23" si="0">SUM(G21:G22)</f>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="F23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" ref="G23:I23" si="0">SUM(G21:G22)</f>
         <v>80000</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>11</v>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F25" s="10" t="s">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="F25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="8">
         <v>80000</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="8">
         <v>70000</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="8">
         <v>90000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ModeloTransporte.xlsx
+++ b/ModeloTransporte.xlsx
@@ -8,64 +8,166 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l_alo\Downloads\ModeloTransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9EA19-76FC-4F60-9D59-4378F486D180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C3AAB7-EF3A-453D-B91B-DC304C25C3AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{05D0FC68-4338-487E-8882-C1544631E011}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Hoja1!$G$21:$I$22</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Hoja2!$E$13:$H$15</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Hoja3!$E$14:$H$17</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Hoja4!$E$14:$H$17</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Hoja1!$G$23:$I$23</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Hoja2!$E$13:$H$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Hoja3!$E$14:$H$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Hoja4!$E$14:$H$17</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Hoja1!$J$21:$J$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Hoja2!$E$16:$H$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Hoja3!$E$18:$H$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Hoja4!$E$18:$H$18</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Hoja1!$J$21:$J$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Hoja2!$I$13:$I$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Hoja3!$I$14:$I$17</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Hoja4!$I$14:$I$17</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Hoja1!$N$17</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Hoja2!$M$9</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Hoja3!$M$10</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Hoja4!$M$10</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Hoja1!$G$25:$I$25</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Hoja1!$L$21:$L$22</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Hoja2!$E$18:$H$18</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Hoja3!$E$20:$H$20</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Hoja4!$E$20:$H$20</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Hoja1!$L$21:$L$22</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Hoja2!$K$13:$K$15</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">Hoja3!$K$14:$K$17</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Hoja4!$K$14:$K$17</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -157,8 +259,266 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eduardo González Bernal</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{22A5352C-E0BB-4527-A578-65F87DD9C980}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Destino</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{2B69531D-3FB7-4DC3-8788-EF3A70D6142A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fuente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{20DF456F-A99B-406D-A57D-0AFF778DC3F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Capacidad</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+o cantidad de producción</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{C9142B49-E6DF-48AF-85FC-76A2E13F7F3D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cantidad</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+que requieren los clientes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eduardo González Bernal</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{4E6DACED-B9ED-44B4-8D46-264467300464}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Destino</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{85F2DFA5-918A-45F6-A6B9-5F38F1B4F1DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fuente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{DCBF35FC-78E4-4DC4-B6F6-D7836F55F0FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Capacidad</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+o cantidad de producción</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{68A2948D-BB93-47A6-94F1-8811DABE711D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cantidad</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+que requieren los clientes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eduardo González Bernal</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{18321A67-7031-4AF8-8A11-EF18A36F8666}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Destino</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{163A4DAB-C3E3-41C9-B8DC-8D0D23DE1284}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fuente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{BC3CADEB-7854-49F4-B173-D85330BC6644}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Capacidad</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+o cantidad de producción</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{3BC6714C-0F77-40BE-927E-AC34D9530145}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cantidad</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+que requieren los clientes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="25">
   <si>
     <t>Demanda</t>
   </si>
@@ -218,6 +578,21 @@
   </si>
   <si>
     <t>RESTRICCIONES</t>
+  </si>
+  <si>
+    <t>Unidades Requeridas</t>
+  </si>
+  <si>
+    <t>Unidades Disponibles</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
 </sst>
 </file>
@@ -323,7 +698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -421,11 +796,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -459,6 +845,31 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,9 +882,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -483,11 +891,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,7 +952,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10810874" cy="1524000"/>
+          <a:ext cx="10506074" cy="1524000"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="8823370" cy="1524000"/>
         </a:xfrm>
@@ -720,7 +1131,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -757,8 +1168,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="4762500"/>
-          <a:ext cx="3048000" cy="1905000"/>
+          <a:off x="0" y="4572000"/>
+          <a:ext cx="3048000" cy="2095500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -927,6 +1338,195 @@
         <a:xfrm>
           <a:off x="3609975" y="4181475"/>
           <a:ext cx="114300" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Abrir llave 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984A4F00-5081-46AA-9134-4ADE647FFAD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="2862791"/>
+          <a:ext cx="120650" cy="556683"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Abrir llave 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57B764E-B1A0-4FB7-B809-A3C6F34ACB1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="2862791"/>
+          <a:ext cx="120650" cy="556683"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Abrir llave 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5215F94F-7910-4848-8E63-C7E8D2E7A396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="3243791"/>
+          <a:ext cx="120650" cy="556683"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst/>
@@ -1257,24 +1857,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E34AF27-CFAF-4009-9ACC-034E91B8CFC6}">
-  <dimension ref="D11:N25"/>
+  <dimension ref="D11:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="11" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F12" s="4" t="s">
@@ -1292,10 +1893,10 @@
       <c r="J12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="19"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="2">
         <f>SUM(J13:J14)</f>
         <v>280000</v>
@@ -1317,10 +1918,10 @@
       <c r="J13" s="8">
         <v>160000</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="19"/>
+      <c r="M13" s="23"/>
       <c r="N13" s="2">
         <f>SUM(G15:I15)</f>
         <v>240000</v>
@@ -1342,10 +1943,10 @@
       <c r="J14" s="8">
         <v>120000</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="19"/>
+      <c r="M14" s="23"/>
       <c r="N14" s="10">
         <f>N12-N13</f>
         <v>40000</v>
@@ -1366,41 +1967,41 @@
       </c>
     </row>
     <row r="16" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="18"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="15"/>
+      <c r="M17" s="24"/>
       <c r="N17" s="13">
         <f>SUMPRODUCT(G13:I14,G21:I22)</f>
         <v>940000</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="21" t="s">
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="F20" s="4" t="s">
@@ -1448,6 +2049,9 @@
       <c r="L21" s="8">
         <v>160000</v>
       </c>
+      <c r="M21" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="F22" s="11" t="s">
@@ -1472,6 +2076,7 @@
       <c r="L22" s="8">
         <v>120000</v>
       </c>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="F23" s="5" t="s">
@@ -1492,10 +2097,10 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="6" t="s">
         <v>7</v>
       </c>
@@ -1523,8 +2128,17 @@
         <v>90000</v>
       </c>
     </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="M21:M22"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="L12:M12"/>
@@ -1540,4 +2154,1259 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F93BF0-371E-4510-97EA-39EAB0A4ABAA}">
+  <dimension ref="B2:M19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="M3" s="2">
+        <f>SUM(I4:I6)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="9">
+        <v>464</v>
+      </c>
+      <c r="F4" s="9">
+        <v>513</v>
+      </c>
+      <c r="G4" s="9">
+        <v>654</v>
+      </c>
+      <c r="H4" s="9">
+        <v>867</v>
+      </c>
+      <c r="I4" s="8">
+        <v>75</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="2">
+        <f>SUM(E7:H7)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9">
+        <v>352</v>
+      </c>
+      <c r="F5" s="9">
+        <v>416</v>
+      </c>
+      <c r="G5" s="9">
+        <v>690</v>
+      </c>
+      <c r="H5" s="9">
+        <v>791</v>
+      </c>
+      <c r="I5" s="8">
+        <v>125</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="10">
+        <f>M3-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9">
+        <v>995</v>
+      </c>
+      <c r="F6" s="9">
+        <v>682</v>
+      </c>
+      <c r="G6" s="9">
+        <v>388</v>
+      </c>
+      <c r="H6" s="9">
+        <v>685</v>
+      </c>
+      <c r="I6" s="8">
+        <v>100</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>80</v>
+      </c>
+      <c r="F7" s="8">
+        <v>65</v>
+      </c>
+      <c r="G7" s="8">
+        <v>70</v>
+      </c>
+      <c r="H7" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="13">
+        <f>SUMPRODUCT(E4:H6,E13:H15)</f>
+        <v>152535</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>20</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>55</v>
+      </c>
+      <c r="I13" s="3">
+        <f>SUM(E13:H13)</f>
+        <v>75</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="8">
+        <v>75</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9">
+        <v>80</v>
+      </c>
+      <c r="F14" s="9">
+        <v>45</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <f>SUM(E14:H14)</f>
+        <v>125</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="8">
+        <v>125</v>
+      </c>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>70</v>
+      </c>
+      <c r="H15" s="9">
+        <v>30</v>
+      </c>
+      <c r="I15" s="3">
+        <f>SUM(E15:H15)</f>
+        <v>100</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="8">
+        <v>100</v>
+      </c>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3">
+        <f>SUM(E13:E15)</f>
+        <v>80</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16:H16" si="0">SUM(F13:F15)</f>
+        <v>65</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>80</v>
+      </c>
+      <c r="F18" s="8">
+        <v>65</v>
+      </c>
+      <c r="G18" s="8">
+        <v>70</v>
+      </c>
+      <c r="H18" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="L13:L15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B4370A-2D90-4B6B-8879-67449FD12563}">
+  <dimension ref="B2:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="M3" s="2">
+        <f>SUM(I4:I7)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>7</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8">
+        <v>80</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="2">
+        <f>SUM(E8:H8)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9">
+        <v>6</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>30</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="10">
+        <f>M3-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8">
+        <v>60</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+      <c r="H7" s="9">
+        <v>6</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>70</v>
+      </c>
+      <c r="F8" s="8">
+        <v>40</v>
+      </c>
+      <c r="G8" s="8">
+        <v>70</v>
+      </c>
+      <c r="H8" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="13">
+        <f>SUMPRODUCT(E4:H7,E14:H17)</f>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="9">
+        <v>5</v>
+      </c>
+      <c r="F14" s="9">
+        <v>40</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>35</v>
+      </c>
+      <c r="I14" s="3">
+        <f>SUM(E14:H14)</f>
+        <v>80</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="8">
+        <v>80</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="9">
+        <v>30</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <f>SUM(E15:H15)</f>
+        <v>30</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="8">
+        <v>30</v>
+      </c>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>60</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <f>SUM(E16:H16)</f>
+        <v>60</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="8">
+        <v>60</v>
+      </c>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9">
+        <v>35</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>10</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <f>SUM(E17:H17)</f>
+        <v>45</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="8">
+        <v>45</v>
+      </c>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <f>SUM(E14:E17)</f>
+        <v>70</v>
+      </c>
+      <c r="F18" s="3">
+        <f>SUM(F14:F17)</f>
+        <v>40</v>
+      </c>
+      <c r="G18" s="3">
+        <f>SUM(G14:G17)</f>
+        <v>70</v>
+      </c>
+      <c r="H18" s="3">
+        <f>SUM(H14:H17)</f>
+        <v>35</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>70</v>
+      </c>
+      <c r="F20" s="8">
+        <v>40</v>
+      </c>
+      <c r="G20" s="8">
+        <v>70</v>
+      </c>
+      <c r="H20" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E21:H21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E4E925-09F5-4F87-874A-195E407E617A}">
+  <dimension ref="B2:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="M3" s="2">
+        <f>SUM(I4:I7)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>7</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8">
+        <v>80</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="2">
+        <f>SUM(E8:H8)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9">
+        <v>6</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>30</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="10">
+        <f>M3-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8">
+        <v>60</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+      <c r="H7" s="9">
+        <v>6</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>70</v>
+      </c>
+      <c r="F8" s="8">
+        <v>40</v>
+      </c>
+      <c r="G8" s="8">
+        <v>70</v>
+      </c>
+      <c r="H8" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="13">
+        <f>SUMPRODUCT(E4:H7,E14:H17)</f>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>40</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>35</v>
+      </c>
+      <c r="I14" s="3">
+        <f>SUM(E14:H14)</f>
+        <v>80</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="8">
+        <v>80</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="9">
+        <v>30</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <f>SUM(E15:H15)</f>
+        <v>30</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="8">
+        <v>30</v>
+      </c>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>60</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <f>SUM(E16:H16)</f>
+        <v>60</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="8">
+        <v>60</v>
+      </c>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9">
+        <v>40</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>5</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <f>SUM(E17:H17)</f>
+        <v>45</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="8">
+        <v>45</v>
+      </c>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <f>SUM(E14:E17)</f>
+        <v>70</v>
+      </c>
+      <c r="F18" s="3">
+        <f>SUM(F14:F17)</f>
+        <v>40</v>
+      </c>
+      <c r="G18" s="3">
+        <f>SUM(G14:G17)</f>
+        <v>70</v>
+      </c>
+      <c r="H18" s="3">
+        <f>SUM(H14:H17)</f>
+        <v>35</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>70</v>
+      </c>
+      <c r="F20" s="8">
+        <v>40</v>
+      </c>
+      <c r="G20" s="8">
+        <v>70</v>
+      </c>
+      <c r="H20" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="B19:C19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ModeloTransporte.xlsx
+++ b/ModeloTransporte.xlsx
@@ -5,164 +5,164 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l_alo\Downloads\ModeloTransporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l_alo\Downloads\ModeloTransporte\Modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C3AAB7-EF3A-453D-B91B-DC304C25C3AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382FFC5B-0D8C-4EEA-B5A6-A5B62E82999F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{05D0FC68-4338-487E-8882-C1544631E011}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="2x3" sheetId="1" r:id="rId1"/>
+    <sheet name="2x4" sheetId="2" r:id="rId2"/>
+    <sheet name="4x4" sheetId="3" r:id="rId3"/>
+    <sheet name="4 x 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Hoja1!$G$21:$I$22</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Hoja2!$E$13:$H$15</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Hoja3!$E$14:$H$17</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Hoja4!$E$14:$H$17</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'2x3'!$G$21:$I$22</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'2x4'!$E$13:$H$15</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'4 x 4'!$E$14:$H$17</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'4x4'!$E$14:$H$17</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Hoja1!$G$23:$I$23</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Hoja2!$E$13:$H$15</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Hoja3!$E$14:$H$17</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Hoja4!$E$14:$H$17</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Hoja1!$J$21:$J$22</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Hoja2!$E$16:$H$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Hoja3!$E$18:$H$18</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Hoja4!$E$18:$H$18</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Hoja1!$J$21:$J$22</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Hoja2!$I$13:$I$15</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Hoja3!$I$14:$I$17</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Hoja4!$I$14:$I$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2x3'!$G$23:$I$23</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2x4'!$E$13:$H$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'4 x 4'!$E$14:$H$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'4x4'!$E$14:$H$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2x3'!$J$21:$J$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2x4'!$E$16:$H$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'4 x 4'!$E$18:$H$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'4x4'!$E$18:$H$18</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2x3'!$J$21:$J$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'2x4'!$I$13:$I$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'4 x 4'!$I$14:$I$17</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'4x4'!$I$14:$I$17</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Hoja1!$N$17</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Hoja2!$M$9</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Hoja3!$M$10</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">Hoja4!$M$10</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'2x3'!$N$17</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'2x4'!$M$9</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'4 x 4'!$M$10</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'4x4'!$M$10</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Hoja1!$G$25:$I$25</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2x3'!$G$25:$I$25</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Hoja1!$L$21:$L$22</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Hoja2!$E$18:$H$18</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Hoja3!$E$20:$H$20</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Hoja4!$E$20:$H$20</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Hoja1!$L$21:$L$22</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Hoja2!$K$13:$K$15</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">Hoja3!$K$14:$K$17</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Hoja4!$K$14:$K$17</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2x3'!$L$21:$L$22</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'2x4'!$E$18:$H$18</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'4 x 4'!$E$20:$H$20</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'4x4'!$E$20:$H$20</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'2x3'!$L$21:$L$22</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'2x4'!$K$13:$K$15</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'4 x 4'!$K$14:$K$17</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'4x4'!$K$14:$K$17</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -255,6 +255,172 @@
         </r>
       </text>
     </comment>
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{96A7A8E1-6984-4FFC-A55D-F17754257EC4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  Condiciones:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+  Caso 1.     </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     Oferta = Demanda
+  Caso 2.     </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>≤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     Oferta &gt; Demanda
+  Caso 3.     </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     Oferta &lt; Demanda</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{21B0BA56-F2A3-4600-95B3-1102643356E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  Condiciones
+  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Caso 1.     </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     Oferta = Demanda
+  Caso 2.     </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     Oferta &gt; Demanda
+  Caso 3.     </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>≤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     Oferta &lt; Demanda</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -518,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="28">
   <si>
     <t>Demanda</t>
   </si>
@@ -574,9 +740,6 @@
     <t>Total de Demanda (D) =</t>
   </si>
   <si>
-    <t>VARIABLES DE DECISIÓN</t>
-  </si>
-  <si>
     <t>RESTRICCIONES</t>
   </si>
   <si>
@@ -594,16 +757,30 @@
   <si>
     <t>A4</t>
   </si>
+  <si>
+    <t>Costo de transportar una unidad del origen al destino</t>
+  </si>
+  <si>
+    <t>Unidades transportadas del origen al destino</t>
+  </si>
+  <si>
+    <t>Fuentes</t>
+  </si>
+  <si>
+    <t>Diferencia (O - D) =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0_-;\-[$$-80A]* #,##0_-;_-[$$-80A]* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,6 +823,13 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -808,14 +992,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,10 +1032,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -900,8 +1084,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1857,10 +2055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E34AF27-CFAF-4009-9ACC-034E91B8CFC6}">
-  <dimension ref="D11:N26"/>
+  <dimension ref="B10:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,273 +2068,296 @@
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="10" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+    </row>
     <row r="11" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="23"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="2">
         <f>SUM(J13:J14)</f>
         <v>280000</v>
       </c>
     </row>
     <row r="13" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="35">
         <v>3</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="35">
         <v>4</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="35">
         <v>6</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>160000</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="23"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="2">
         <f>SUM(G15:I15)</f>
         <v>240000</v>
       </c>
     </row>
     <row r="14" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="35">
         <v>5</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="35">
         <v>3</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="35">
         <v>5</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>120000</v>
       </c>
-      <c r="L14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="10">
+      <c r="L14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="9">
         <f>N12-N13</f>
         <v>40000</v>
       </c>
     </row>
     <row r="15" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
         <v>80000</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>70000</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>90000</v>
       </c>
     </row>
     <row r="16" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="L17" s="24" t="s">
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="13">
+      <c r="M17" s="23"/>
+      <c r="N17" s="12">
         <f>SUMPRODUCT(G13:I14,G21:I22)</f>
         <v>940000</v>
       </c>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="28" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F18" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G19" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="F20" s="4" t="s">
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="11" t="s">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="33">
         <v>80000</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="33">
         <v>40000</v>
       </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="I21" s="33">
+        <v>0</v>
+      </c>
+      <c r="J21" s="34">
         <f>SUM(G21:I21)</f>
         <v>120000</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>160000</v>
       </c>
-      <c r="M21" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="F22" s="11" t="s">
+      <c r="M21" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="G22" s="33">
+        <v>0</v>
+      </c>
+      <c r="H22" s="33">
         <v>30000</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="33">
         <v>90000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="34">
         <f>SUM(G22:I22)</f>
         <v>120000</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>120000</v>
       </c>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="F23" s="5" t="s">
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="34">
         <f t="shared" ref="G23:I23" si="0">SUM(G21:G22)</f>
         <v>80000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="34">
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="34">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="20" t="s">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>80000</v>
+      </c>
+      <c r="H25" s="7">
+        <v>70000</v>
+      </c>
+      <c r="I25" s="7">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="F25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>80000</v>
-      </c>
-      <c r="H25" s="8">
-        <v>70000</v>
-      </c>
-      <c r="I25" s="8">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F18:J18"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="D24:E24"/>
@@ -2147,7 +2368,6 @@
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L16:N16"/>
-    <mergeCell ref="F18:I18"/>
     <mergeCell ref="J19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2158,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F93BF0-371E-4510-97EA-39EAB0A4ABAA}">
-  <dimension ref="B2:M19"/>
+  <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,359 +2390,373 @@
     <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D1" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="23"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="2">
         <f>SUM(I4:I6)</f>
         <v>300</v>
       </c>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>464</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>513</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>654</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>867</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>75</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="2">
         <f>SUM(E7:H7)</f>
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>352</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>416</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>690</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>791</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>125</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="10">
+      <c r="L5" s="22"/>
+      <c r="M5" s="9">
         <f>M3-M4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8">
         <v>995</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>682</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>388</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>685</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>100</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="17"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
         <v>80</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>65</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>70</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="13">
+      <c r="L9" s="23"/>
+      <c r="M9" s="12">
         <f>SUMPRODUCT(E4:H6,E13:H15)</f>
         <v>152535</v>
       </c>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="E13" s="33">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33">
         <v>20</v>
       </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+      <c r="H13" s="33">
         <v>55</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="37">
         <f>SUM(E13:H13)</f>
         <v>75</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>75</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>21</v>
+      <c r="L13" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="33">
         <v>80</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="33">
         <v>45</v>
       </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="G14" s="33">
+        <v>0</v>
+      </c>
+      <c r="H14" s="33">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37">
         <f>SUM(E14:H14)</f>
         <v>125</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>125</v>
       </c>
-      <c r="L14" s="19"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="D15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33">
         <v>70</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="33">
         <v>30</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="37">
         <f>SUM(E15:H15)</f>
         <v>100</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>100</v>
       </c>
-      <c r="L15" s="19"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="37">
         <f>SUM(E13:E15)</f>
         <v>80</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="37">
         <f t="shared" ref="F16:H16" si="0">SUM(F13:F15)</f>
         <v>65</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="37">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="37">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>80</v>
+      </c>
+      <c r="F18" s="7">
+        <v>65</v>
+      </c>
+      <c r="G18" s="7">
+        <v>70</v>
+      </c>
+      <c r="H18" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>80</v>
-      </c>
-      <c r="F18" s="8">
-        <v>65</v>
-      </c>
-      <c r="G18" s="8">
-        <v>70</v>
-      </c>
-      <c r="H18" s="8">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D10:H10"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="K3:L3"/>
@@ -2530,11 +2764,7 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="D10:G10"/>
     <mergeCell ref="I11:K11"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="L13:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2544,421 +2774,435 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B4370A-2D90-4B6B-8879-67449FD12563}">
-  <dimension ref="B2:M21"/>
+  <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D1" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="23"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="2">
         <f>SUM(I4:I7)</f>
         <v>215</v>
       </c>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>7</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>3</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>80</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="2">
         <f>SUM(E8:H8)</f>
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>6</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>6</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>30</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="10">
+      <c r="L5" s="22"/>
+      <c r="M5" s="9">
         <f>M3-M4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>60</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="8">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
         <v>6</v>
       </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>2</v>
-      </c>
-      <c r="H6" s="9">
-        <v>4</v>
-      </c>
-      <c r="I6" s="8">
-        <v>60</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="9">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9">
-        <v>3</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="H7" s="8">
         <v>6</v>
       </c>
-      <c r="H7" s="9">
-        <v>6</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>45</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="17"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
         <v>70</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>40</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>70</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="13">
+      <c r="L10" s="23"/>
+      <c r="M10" s="12">
         <f>SUMPRODUCT(E4:H7,E14:H17)</f>
         <v>620</v>
       </c>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="H13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="33">
         <v>5</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="33">
         <v>40</v>
       </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="G14" s="33">
+        <v>0</v>
+      </c>
+      <c r="H14" s="33">
         <v>35</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="37">
         <f>SUM(E14:H14)</f>
         <v>80</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>80</v>
       </c>
-      <c r="L14" s="19" t="s">
-        <v>21</v>
+      <c r="L14" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="33">
         <v>30</v>
       </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0</v>
+      </c>
+      <c r="I15" s="37">
         <f>SUM(E15:H15)</f>
         <v>30</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>30</v>
       </c>
-      <c r="L15" s="19"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="D16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="33">
+        <v>0</v>
+      </c>
+      <c r="F16" s="33">
+        <v>0</v>
+      </c>
+      <c r="G16" s="33">
         <v>60</v>
       </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="H16" s="33">
+        <v>0</v>
+      </c>
+      <c r="I16" s="37">
         <f>SUM(E16:H16)</f>
         <v>60</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>60</v>
       </c>
-      <c r="L16" s="19"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="33">
         <v>35</v>
       </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="33">
+        <v>0</v>
+      </c>
+      <c r="G17" s="33">
         <v>10</v>
       </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="H17" s="33">
+        <v>0</v>
+      </c>
+      <c r="I17" s="37">
         <f>SUM(E17:H17)</f>
         <v>45</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>45</v>
       </c>
-      <c r="L17" s="19"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="37">
         <f>SUM(E14:E17)</f>
         <v>70</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="37">
         <f>SUM(F14:F17)</f>
         <v>40</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="37">
         <f>SUM(G14:G17)</f>
         <v>70</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="37">
         <f>SUM(H14:H17)</f>
         <v>35</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>70</v>
+      </c>
+      <c r="F20" s="7">
+        <v>40</v>
+      </c>
+      <c r="G20" s="7">
+        <v>70</v>
+      </c>
+      <c r="H20" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>70</v>
-      </c>
-      <c r="F20" s="8">
-        <v>40</v>
-      </c>
-      <c r="G20" s="8">
-        <v>70</v>
-      </c>
-      <c r="H20" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D11:H11"/>
     <mergeCell ref="L14:L17"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="K3:L3"/>
@@ -2966,11 +3210,8 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="D11:G11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2980,418 +3221,434 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E4E925-09F5-4F87-874A-195E407E617A}">
-  <dimension ref="B2:M21"/>
+  <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D1" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="23"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="2">
         <f>SUM(I4:I7)</f>
         <v>215</v>
       </c>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>7</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>3</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>80</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="2">
         <f>SUM(E8:H8)</f>
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>6</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>6</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>30</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="10">
+      <c r="L5" s="22"/>
+      <c r="M5" s="9">
         <f>M3-M4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>60</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="8">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
         <v>6</v>
       </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>2</v>
-      </c>
-      <c r="H6" s="9">
-        <v>4</v>
-      </c>
-      <c r="I6" s="8">
-        <v>60</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="9">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9">
-        <v>3</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="H7" s="8">
         <v>6</v>
       </c>
-      <c r="H7" s="9">
-        <v>6</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>45</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="17"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
         <v>70</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>40</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>70</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="13">
+      <c r="L10" s="23"/>
+      <c r="M10" s="12">
         <f>SUMPRODUCT(E4:H7,E14:H17)</f>
         <v>620</v>
       </c>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="H13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="E14" s="33">
+        <v>0</v>
+      </c>
+      <c r="F14" s="33">
         <v>40</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="33">
         <v>5</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="33">
         <v>35</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="37">
         <f>SUM(E14:H14)</f>
         <v>80</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>80</v>
       </c>
-      <c r="L14" s="19" t="s">
-        <v>21</v>
+      <c r="L14" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="33">
         <v>30</v>
       </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0</v>
+      </c>
+      <c r="I15" s="37">
         <f>SUM(E15:H15)</f>
         <v>30</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>30</v>
       </c>
-      <c r="L15" s="19"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="D16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="33">
+        <v>0</v>
+      </c>
+      <c r="F16" s="33">
+        <v>0</v>
+      </c>
+      <c r="G16" s="33">
         <v>60</v>
       </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="H16" s="33">
+        <v>0</v>
+      </c>
+      <c r="I16" s="37">
         <f>SUM(E16:H16)</f>
         <v>60</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>60</v>
       </c>
-      <c r="L16" s="19"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="33">
         <v>40</v>
       </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="33">
+        <v>0</v>
+      </c>
+      <c r="G17" s="33">
         <v>5</v>
       </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="H17" s="33">
+        <v>0</v>
+      </c>
+      <c r="I17" s="37">
         <f>SUM(E17:H17)</f>
         <v>45</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>45</v>
       </c>
-      <c r="L17" s="19"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="37">
         <f>SUM(E14:E17)</f>
         <v>70</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="37">
         <f>SUM(F14:F17)</f>
         <v>40</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="37">
         <f>SUM(G14:G17)</f>
         <v>70</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="37">
         <f>SUM(H14:H17)</f>
         <v>35</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>70</v>
+      </c>
+      <c r="F20" s="7">
+        <v>40</v>
+      </c>
+      <c r="G20" s="7">
+        <v>70</v>
+      </c>
+      <c r="H20" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>70</v>
-      </c>
-      <c r="F20" s="8">
-        <v>40</v>
-      </c>
-      <c r="G20" s="8">
-        <v>70</v>
-      </c>
-      <c r="H20" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D11:H11"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="K3:L3"/>
@@ -3399,11 +3656,9 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="D11:G11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="L14:L17"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ModeloTransporte.xlsx
+++ b/ModeloTransporte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l_alo\Downloads\ModeloTransporte\Modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382FFC5B-0D8C-4EEA-B5A6-A5B62E82999F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E217CE2-815E-4E57-BE9B-61C453B0D0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{05D0FC68-4338-487E-8882-C1544631E011}"/>
   </bookViews>
@@ -43,11 +43,11 @@
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2x3'!$G$23:$I$23</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2x3'!$G$21:$I$22</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2x4'!$E$13:$H$15</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'4 x 4'!$E$14:$H$17</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'4x4'!$E$14:$H$17</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2x3'!$J$21:$J$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2x3'!$G$23:$I$23</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2x4'!$E$16:$H$16</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'4 x 4'!$E$18:$H$18</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'4x4'!$E$18:$H$18</definedName>
@@ -79,7 +79,7 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
@@ -99,11 +99,11 @@
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
@@ -111,11 +111,11 @@
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2x3'!$G$25:$I$25</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2x3'!$L$21:$L$22</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2x3'!$G$25:$I$25</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'2x4'!$E$18:$H$18</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">'4 x 4'!$E$20:$H$20</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'4x4'!$E$20:$H$20</definedName>
@@ -294,7 +294,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">     Oferta = Demanda
+          <t xml:space="preserve">     Si Oferta = Demanda
   Caso 2.     </t>
         </r>
         <r>
@@ -314,7 +314,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">     Oferta &gt; Demanda
+          <t xml:space="preserve">     Si Oferta &gt; Demanda
   Caso 3.     </t>
         </r>
         <r>
@@ -334,7 +334,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">     Oferta &lt; Demanda</t>
+          <t xml:space="preserve">     Si Oferta &lt; Demanda</t>
         </r>
       </text>
     </comment>
@@ -348,8 +348,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">  Condiciones
-  </t>
+          <t xml:space="preserve">   Condiciones
+   </t>
         </r>
         <r>
           <rPr>
@@ -377,8 +377,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">     Oferta = Demanda
-  Caso 2.     </t>
+          <t xml:space="preserve">     Si Oferta = Demanda
+   Caso 2.     </t>
         </r>
         <r>
           <rPr>
@@ -397,8 +397,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">     Oferta &gt; Demanda
-  Caso 3.     </t>
+          <t xml:space="preserve">     Si Oferta &gt; Demanda
+   Caso 3.     </t>
         </r>
         <r>
           <rPr>
@@ -417,7 +417,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">     Oferta &lt; Demanda</t>
+          <t xml:space="preserve">     Si Oferta &lt; Demanda</t>
         </r>
       </text>
     </comment>
@@ -778,7 +778,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0_-;\-[$$-80A]* #,##0_-;_-[$$-80A]* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1036,6 +1036,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1066,9 +1082,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1082,19 +1095,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2058,7 +2058,7 @@
   <dimension ref="B10:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,24 +2069,24 @@
   </cols>
   <sheetData>
     <row r="10" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
     </row>
     <row r="11" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F12" s="3" t="s">
@@ -2104,10 +2104,10 @@
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="2">
         <f>SUM(J13:J14)</f>
         <v>280000</v>
@@ -2117,22 +2117,22 @@
       <c r="F13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="19">
         <v>3</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="19">
         <v>4</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="19">
         <v>6</v>
       </c>
       <c r="J13" s="7">
         <v>160000</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="22"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="2">
         <f>SUM(G15:I15)</f>
         <v>240000</v>
@@ -2142,22 +2142,22 @@
       <c r="F14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="19">
         <v>5</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="19">
         <v>3</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="19">
         <v>5</v>
       </c>
       <c r="J14" s="7">
         <v>120000</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="22"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="9">
         <f>N12-N13</f>
         <v>40000</v>
@@ -2178,43 +2178,43 @@
       </c>
     </row>
     <row r="16" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="32"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="23"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="12">
         <f>SUMPRODUCT(G13:I14,G21:I22)</f>
         <v>940000</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="36"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="28" t="s">
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F20" s="3" t="s">
@@ -2243,16 +2243,16 @@
       <c r="F21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="17">
         <v>80000</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
         <v>40000</v>
       </c>
-      <c r="I21" s="33">
-        <v>0</v>
-      </c>
-      <c r="J21" s="34">
+      <c r="J21" s="18">
         <f>SUM(G21:I21)</f>
         <v>120000</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="L21" s="7">
         <v>160000</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2270,16 +2270,16 @@
       <c r="F22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="33">
-        <v>0</v>
-      </c>
-      <c r="H22" s="33">
-        <v>30000</v>
-      </c>
-      <c r="I22" s="33">
-        <v>90000</v>
-      </c>
-      <c r="J22" s="34">
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <v>70000</v>
+      </c>
+      <c r="I22" s="17">
+        <v>50000</v>
+      </c>
+      <c r="J22" s="18">
         <f>SUM(G22:I22)</f>
         <v>120000</v>
       </c>
@@ -2289,21 +2289,21 @@
       <c r="L22" s="7">
         <v>120000</v>
       </c>
-      <c r="M22" s="18"/>
+      <c r="M22" s="24"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="18">
         <f t="shared" ref="G23:I23" si="0">SUM(G21:G22)</f>
         <v>80000</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="18">
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="18">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
@@ -2316,10 +2316,10 @@
       <c r="C24" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="5" t="s">
         <v>7</v>
       </c>
@@ -2348,11 +2348,11 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2391,21 +2391,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D3" s="13" t="s">
@@ -2426,10 +2426,10 @@
       <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="2">
         <f>SUM(I4:I6)</f>
         <v>300</v>
@@ -2454,10 +2454,10 @@
       <c r="I4" s="7">
         <v>75</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="2">
         <f>SUM(E7:H7)</f>
         <v>300</v>
@@ -2482,10 +2482,10 @@
       <c r="I5" s="7">
         <v>125</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="9">
         <f>M3-M4</f>
         <v>0</v>
@@ -2532,43 +2532,43 @@
       </c>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="12">
         <f>SUMPRODUCT(E4:H6,E13:H15)</f>
         <v>152535</v>
       </c>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="28" t="s">
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12" s="13" t="s">
@@ -2600,19 +2600,19 @@
       <c r="D13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="33">
-        <v>0</v>
-      </c>
-      <c r="F13" s="33">
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
         <v>20</v>
       </c>
-      <c r="G13" s="33">
-        <v>0</v>
-      </c>
-      <c r="H13" s="33">
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
         <v>55</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="21">
         <f>SUM(E13:H13)</f>
         <v>75</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="K13" s="7">
         <v>75</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2630,19 +2630,19 @@
       <c r="D14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="17">
         <v>80</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="17">
         <v>45</v>
       </c>
-      <c r="G14" s="33">
-        <v>0</v>
-      </c>
-      <c r="H14" s="33">
-        <v>0</v>
-      </c>
-      <c r="I14" s="37">
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
         <f>SUM(E14:H14)</f>
         <v>125</v>
       </c>
@@ -2652,25 +2652,25 @@
       <c r="K14" s="7">
         <v>125</v>
       </c>
-      <c r="L14" s="18"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="33">
-        <v>0</v>
-      </c>
-      <c r="F15" s="33">
-        <v>0</v>
-      </c>
-      <c r="G15" s="33">
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
         <v>70</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="17">
         <v>30</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="21">
         <f>SUM(E15:H15)</f>
         <v>100</v>
       </c>
@@ -2680,35 +2680,35 @@
       <c r="K15" s="7">
         <v>100</v>
       </c>
-      <c r="L15" s="18"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="21">
         <f>SUM(E13:E15)</f>
         <v>80</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="21">
         <f t="shared" ref="F16:H16" si="0">SUM(F13:F15)</f>
         <v>65</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="21">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="21">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
@@ -2743,21 +2743,15 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
@@ -2765,6 +2759,12 @@
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2787,21 +2787,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D3" s="13" t="s">
@@ -2822,10 +2822,10 @@
       <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="2">
         <f>SUM(I4:I7)</f>
         <v>215</v>
@@ -2850,10 +2850,10 @@
       <c r="I4" s="7">
         <v>80</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="2">
         <f>SUM(E8:H8)</f>
         <v>215</v>
@@ -2878,10 +2878,10 @@
       <c r="I5" s="7">
         <v>30</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="9">
         <f>M3-M4</f>
         <v>0</v>
@@ -2951,43 +2951,43 @@
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="23"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="12">
         <f>SUMPRODUCT(E4:H7,E14:H17)</f>
         <v>620</v>
       </c>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="28" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13" s="13" t="s">
@@ -3019,19 +3019,19 @@
       <c r="D14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="17">
         <v>5</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="17">
         <v>40</v>
       </c>
-      <c r="G14" s="33">
-        <v>0</v>
-      </c>
-      <c r="H14" s="33">
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
         <v>35</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="21">
         <f>SUM(E14:H14)</f>
         <v>80</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="K14" s="7">
         <v>80</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3049,19 +3049,19 @@
       <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="17">
         <v>30</v>
       </c>
-      <c r="F15" s="33">
-        <v>0</v>
-      </c>
-      <c r="G15" s="33">
-        <v>0</v>
-      </c>
-      <c r="H15" s="33">
-        <v>0</v>
-      </c>
-      <c r="I15" s="37">
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
         <f>SUM(E15:H15)</f>
         <v>30</v>
       </c>
@@ -3071,25 +3071,25 @@
       <c r="K15" s="7">
         <v>30</v>
       </c>
-      <c r="L15" s="18"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="33">
-        <v>0</v>
-      </c>
-      <c r="F16" s="33">
-        <v>0</v>
-      </c>
-      <c r="G16" s="33">
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
         <v>60</v>
       </c>
-      <c r="H16" s="33">
-        <v>0</v>
-      </c>
-      <c r="I16" s="37">
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="21">
         <f>SUM(E16:H16)</f>
         <v>60</v>
       </c>
@@ -3099,25 +3099,25 @@
       <c r="K16" s="7">
         <v>60</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="17">
         <v>35</v>
       </c>
-      <c r="F17" s="33">
-        <v>0</v>
-      </c>
-      <c r="G17" s="33">
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
         <v>10</v>
       </c>
-      <c r="H17" s="33">
-        <v>0</v>
-      </c>
-      <c r="I17" s="37">
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="21">
         <f>SUM(E17:H17)</f>
         <v>45</v>
       </c>
@@ -3127,35 +3127,35 @@
       <c r="K17" s="7">
         <v>45</v>
       </c>
-      <c r="L17" s="18"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="21">
         <f>SUM(E14:E17)</f>
         <v>70</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="21">
         <f>SUM(F14:F17)</f>
         <v>40</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="21">
         <f>SUM(G14:G17)</f>
         <v>70</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="21">
         <f>SUM(H14:H17)</f>
         <v>35</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="5" t="s">
         <v>7</v>
       </c>
@@ -3190,12 +3190,12 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3234,21 +3234,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D3" s="13" t="s">
@@ -3269,10 +3269,10 @@
       <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="2">
         <f>SUM(I4:I7)</f>
         <v>215</v>
@@ -3297,10 +3297,10 @@
       <c r="I4" s="7">
         <v>80</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="2">
         <f>SUM(E8:H8)</f>
         <v>215</v>
@@ -3325,10 +3325,10 @@
       <c r="I5" s="7">
         <v>30</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="9">
         <f>M3-M4</f>
         <v>0</v>
@@ -3398,43 +3398,43 @@
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="23"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="12">
         <f>SUMPRODUCT(E4:H7,E14:H17)</f>
         <v>620</v>
       </c>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="28" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13" s="13" t="s">
@@ -3466,19 +3466,19 @@
       <c r="D14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="33">
-        <v>0</v>
-      </c>
-      <c r="F14" s="33">
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
         <v>40</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="17">
         <v>5</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="17">
         <v>35</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="21">
         <f>SUM(E14:H14)</f>
         <v>80</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="K14" s="7">
         <v>80</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3496,19 +3496,19 @@
       <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="17">
         <v>30</v>
       </c>
-      <c r="F15" s="33">
-        <v>0</v>
-      </c>
-      <c r="G15" s="33">
-        <v>0</v>
-      </c>
-      <c r="H15" s="33">
-        <v>0</v>
-      </c>
-      <c r="I15" s="37">
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
         <f>SUM(E15:H15)</f>
         <v>30</v>
       </c>
@@ -3518,25 +3518,25 @@
       <c r="K15" s="7">
         <v>30</v>
       </c>
-      <c r="L15" s="18"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="33">
-        <v>0</v>
-      </c>
-      <c r="F16" s="33">
-        <v>0</v>
-      </c>
-      <c r="G16" s="33">
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
         <v>60</v>
       </c>
-      <c r="H16" s="33">
-        <v>0</v>
-      </c>
-      <c r="I16" s="37">
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="21">
         <f>SUM(E16:H16)</f>
         <v>60</v>
       </c>
@@ -3546,25 +3546,25 @@
       <c r="K16" s="7">
         <v>60</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="17">
         <v>40</v>
       </c>
-      <c r="F17" s="33">
-        <v>0</v>
-      </c>
-      <c r="G17" s="33">
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
         <v>5</v>
       </c>
-      <c r="H17" s="33">
-        <v>0</v>
-      </c>
-      <c r="I17" s="37">
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="21">
         <f>SUM(E17:H17)</f>
         <v>45</v>
       </c>
@@ -3574,35 +3574,35 @@
       <c r="K17" s="7">
         <v>45</v>
       </c>
-      <c r="L17" s="18"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="21">
         <f>SUM(E14:E17)</f>
         <v>70</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="21">
         <f>SUM(F14:F17)</f>
         <v>40</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="21">
         <f>SUM(G14:G17)</f>
         <v>70</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="21">
         <f>SUM(H14:H17)</f>
         <v>35</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="5" t="s">
         <v>7</v>
       </c>
@@ -3637,28 +3637,28 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:L10"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L14:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
